--- a/REGULAR/OJT/NEW DONE/JAVIER, MAYLENNE MAILEG.xlsx
+++ b/REGULAR/OJT/NEW DONE/JAVIER, MAYLENNE MAILEG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FCAE45-F52C-4BDC-9275-175EF8952435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C72893E-D875-4124-8CAA-51368FFB7171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -3593,10 +3593,10 @@
   </sheetPr>
   <dimension ref="A2:K401"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4248" topLeftCell="A147"/>
-      <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4248" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D344" sqref="D344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3759,7 +3759,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.09499999999997</v>
+        <v>69.84499999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3769,7 +3769,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>170</v>
+        <v>173.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11334,13 +11334,15 @@
         <v>44986</v>
       </c>
       <c r="B344" s="20"/>
-      <c r="C344" s="13"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
@@ -11352,13 +11354,15 @@
         <v>45017</v>
       </c>
       <c r="B345" s="20"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H345" s="39"/>
       <c r="I345" s="9"/>
@@ -11370,13 +11374,15 @@
         <v>45047</v>
       </c>
       <c r="B346" s="20"/>
-      <c r="C346" s="13"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D346" s="39"/>
       <c r="E346" s="9"/>
       <c r="F346" s="20"/>
-      <c r="G346" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H346" s="39"/>
       <c r="I346" s="9"/>
@@ -12398,7 +12404,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12525,7 +12531,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>236.09499999999997</v>
+        <v>243.59499999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
